--- a/biology/Médecine/Claire_Magnon/Claire_Magnon.xlsx
+++ b/biology/Médecine/Claire_Magnon/Claire_Magnon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Magnon est une biologiste et cancérologue française qui dirige l'équipe Inserm Atip-Avenir à l'Institut de radiobiologie cellulaire et moléculaire, dirigé par Paul-Henri Roméo au CEA de Fontenay-aux-Roses.
-Elle est connue pour avoir mis en évidence l'implication de neurones dans le développement de tumeurs cancéreuses[1],[2],[3].
+Elle est connue pour avoir mis en évidence l'implication de neurones dans le développement de tumeurs cancéreuses.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire Magnon est reçue au concours de pharmacie en 1992. Elle poursuit des études de biochimie et obtient en 1996 une Maitrise de sciences biologiques et médicales à l'Université Paris-V René Descartes. En 1998, elle se spécialise en statistiques au Centre d’enseignement de la statistique appliquée à la médecine et à la biologie médicale à Paris.
 En 2000, elle obtient un DEA de biotechnologie à l’Université Paris-VII Hôpital Saint-Louis.
 Elle devient Docteure en pharmacie en 2002, puis spécialiste en oncologie en 2005 à l’Université Paris-XI, à l'Institut Gustave-Roussy de lutte contre le cancer de Villejuif en soutenant la thèse « Potentialisation de la radiothérapie métabolique par un traitement anti-angiogénique » sous la direction de Michel Perricaudet.
 De 2007 à 2009 elle est chercheure postdoctorale à la Mount Sinai School of Medicine au Department of Medicine and Gene and Cell Medicine du Tisch Cancer Institute, à New-York, USA.
 En 2013, elle devient chercheure au CEA puis dirige en 2015 l'équipe Inserm Atip-Avenir de l'Institut de radiobiologie cellulaire et moléculaire.
-En 2016, elle obtient son habilitation à diriger des recherches[4].
+En 2016, elle obtient son habilitation à diriger des recherches.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Magnon C, Autonomic nerve development contributes to prostate cancer progression, 2013 DOI 10.1126/science.1236361
 Philippe Mauffrey, Nicolas Tchitchek, Vilma Barroca, Alexis Bemelmans, Virginie Firlej, Yves Allory, Paul-Henri Roméo &amp; Claire Magnon, Progenitors from the central nervous system drive neurogenesis in cancer, 2019 DOI 10.1038/s41586-019-1219-y</t>
